--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Gpc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.853143</v>
+        <v>8.685451</v>
       </c>
       <c r="N2">
-        <v>35.706286</v>
+        <v>17.370902</v>
       </c>
       <c r="O2">
-        <v>0.2631497248132529</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P2">
-        <v>0.2070937143112604</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q2">
-        <v>239.5869771723633</v>
+        <v>12.130509082797</v>
       </c>
       <c r="R2">
-        <v>1437.52186303418</v>
+        <v>48.522036331188</v>
       </c>
       <c r="S2">
-        <v>0.1959520507066165</v>
+        <v>0.0128374472345734</v>
       </c>
       <c r="T2">
-        <v>0.1634845426965798</v>
+        <v>0.007478006598830277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>76.832796</v>
       </c>
       <c r="O3">
-        <v>0.3774970999790308</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P3">
-        <v>0.4456243112083781</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q3">
-        <v>343.6955487583867</v>
+        <v>35.769431345004</v>
       </c>
       <c r="R3">
-        <v>3093.25993882548</v>
+        <v>214.616588070024</v>
       </c>
       <c r="S3">
-        <v>0.2810997842737106</v>
+        <v>0.03785399148279664</v>
       </c>
       <c r="T3">
-        <v>0.3517860837769464</v>
+        <v>0.03307578129763098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.262928</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N4">
-        <v>26.525856</v>
+        <v>0.092858</v>
       </c>
       <c r="O4">
-        <v>0.1954913963002474</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P4">
-        <v>0.1538479259457462</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q4">
-        <v>177.98685799888</v>
+        <v>0.043229949042</v>
       </c>
       <c r="R4">
-        <v>1067.92114799328</v>
+        <v>0.259379694252</v>
       </c>
       <c r="S4">
-        <v>0.1455708913536515</v>
+        <v>4.574929098128265E-05</v>
       </c>
       <c r="T4">
-        <v>0.1214510923313427</v>
+        <v>3.997447782240564E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.11704666666667</v>
+        <v>13.1674365</v>
       </c>
       <c r="N5">
-        <v>33.35114</v>
+        <v>26.334873</v>
       </c>
       <c r="O5">
-        <v>0.1638617789074688</v>
+        <v>0.2769334094675747</v>
       </c>
       <c r="P5">
-        <v>0.1934340485346152</v>
+        <v>0.2180237344257262</v>
       </c>
       <c r="Q5">
-        <v>149.1893951642444</v>
+        <v>18.3902606854155</v>
       </c>
       <c r="R5">
-        <v>1342.7045564782</v>
+        <v>73.56104274166201</v>
       </c>
       <c r="S5">
-        <v>0.1220181842566593</v>
+        <v>0.01946200275418581</v>
       </c>
       <c r="T5">
-        <v>0.1527012882636299</v>
+        <v>0.01133691008523088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.396647</v>
+      </c>
+      <c r="H6">
+        <v>2.793294</v>
+      </c>
+      <c r="I6">
+        <v>0.07027683222332393</v>
+      </c>
+      <c r="J6">
+        <v>0.05199851344209044</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.1169053333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.350716</v>
-      </c>
-      <c r="I6">
-        <v>0.006486832631067552</v>
-      </c>
-      <c r="J6">
-        <v>0.006876945449996328</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>17.853143</v>
+        <v>0.05253</v>
       </c>
       <c r="N6">
-        <v>35.706286</v>
+        <v>0.15759</v>
       </c>
       <c r="O6">
-        <v>0.2631497248132529</v>
+        <v>0.001104794543670797</v>
       </c>
       <c r="P6">
-        <v>0.2070937143112604</v>
+        <v>0.001304671577802946</v>
       </c>
       <c r="Q6">
-        <v>2.087127633462666</v>
+        <v>0.07336586690999999</v>
       </c>
       <c r="R6">
-        <v>12.522765800776</v>
+        <v>0.44019520146</v>
       </c>
       <c r="S6">
-        <v>0.001707008221775056</v>
+        <v>7.764146078679632E-05</v>
       </c>
       <c r="T6">
-        <v>0.001424172176355662</v>
+        <v>6.784098257589982E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J7">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.610932</v>
+        <v>8.685451</v>
       </c>
       <c r="N7">
-        <v>76.832796</v>
+        <v>17.370902</v>
       </c>
       <c r="O7">
-        <v>0.3774970999790308</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P7">
-        <v>0.4456243112083781</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q7">
-        <v>2.994054542437333</v>
+        <v>116.5576812143767</v>
       </c>
       <c r="R7">
-        <v>26.946490881936</v>
+        <v>699.3460872862599</v>
       </c>
       <c r="S7">
-        <v>0.002448760506277347</v>
+        <v>0.1233503946257115</v>
       </c>
       <c r="T7">
-        <v>0.003064534079372204</v>
+        <v>0.1077801974323023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.262928</v>
+        <v>25.610932</v>
       </c>
       <c r="N8">
-        <v>26.525856</v>
+        <v>76.832796</v>
       </c>
       <c r="O8">
-        <v>0.1954913963002474</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P8">
-        <v>0.1538479259457462</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q8">
-        <v>1.550507018816</v>
+        <v>343.6955487583867</v>
       </c>
       <c r="R8">
-        <v>9.303042112896</v>
+        <v>3093.25993882548</v>
       </c>
       <c r="S8">
-        <v>0.001268119968613403</v>
+        <v>0.3637253343473199</v>
       </c>
       <c r="T8">
-        <v>0.001058003794323971</v>
+        <v>0.4767198572737216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,93 +962,93 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>13.41987666666667</v>
+      </c>
+      <c r="H9">
+        <v>40.25962999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.6752647025060969</v>
+      </c>
+      <c r="J9">
+        <v>0.7494524069892348</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.1169053333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.350716</v>
-      </c>
-      <c r="I9">
-        <v>0.006486832631067552</v>
-      </c>
-      <c r="J9">
-        <v>0.006876945449996328</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>11.11704666666667</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N9">
-        <v>33.35114</v>
+        <v>0.092858</v>
       </c>
       <c r="O9">
-        <v>0.1638617789074688</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P9">
-        <v>0.1934340485346152</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q9">
-        <v>1.299642046248889</v>
+        <v>0.4153809691711111</v>
       </c>
       <c r="R9">
-        <v>11.69677841624</v>
+        <v>3.738428722539999</v>
       </c>
       <c r="S9">
-        <v>0.001062943934401745</v>
+        <v>0.0004395884160824165</v>
       </c>
       <c r="T9">
-        <v>0.001330235399944491</v>
+        <v>0.000576150482753787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.0670265</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H10">
-        <v>6.134053</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I10">
-        <v>0.1701828908337422</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J10">
-        <v>0.1202783673068418</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,90 +1057,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.853143</v>
+        <v>13.1674365</v>
       </c>
       <c r="N10">
-        <v>35.706286</v>
+        <v>26.334873</v>
       </c>
       <c r="O10">
-        <v>0.2631497248132529</v>
+        <v>0.2769334094675747</v>
       </c>
       <c r="P10">
-        <v>0.2070937143112604</v>
+        <v>0.2180237344257262</v>
       </c>
       <c r="Q10">
-        <v>54.75606268928949</v>
+        <v>176.705373846165</v>
       </c>
       <c r="R10">
-        <v>219.024250757158</v>
+        <v>1060.23224307699</v>
       </c>
       <c r="S10">
-        <v>0.04478358089082311</v>
+        <v>0.1870033563581209</v>
       </c>
       <c r="T10">
-        <v>0.02490889383686794</v>
+        <v>0.1633984125461422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.0670265</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H11">
-        <v>6.134053</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I11">
-        <v>0.1701828908337422</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J11">
-        <v>0.1202783673068418</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>25.610932</v>
+        <v>0.05253</v>
       </c>
       <c r="N11">
-        <v>76.832796</v>
+        <v>0.15759</v>
       </c>
       <c r="O11">
-        <v>0.3774970999790308</v>
+        <v>0.001104794543670797</v>
       </c>
       <c r="P11">
-        <v>0.4456243112083781</v>
+        <v>0.001304671577802946</v>
       </c>
       <c r="Q11">
-        <v>78.549407133698</v>
+        <v>0.7049461212999999</v>
       </c>
       <c r="R11">
-        <v>471.296442802188</v>
+        <v>6.344515091699999</v>
       </c>
       <c r="S11">
-        <v>0.06424354775578565</v>
+        <v>0.0007460287588622198</v>
       </c>
       <c r="T11">
-        <v>0.05359896458437968</v>
+        <v>0.0009777892543148604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H12">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I12">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J12">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.262928</v>
+        <v>8.685451</v>
       </c>
       <c r="N12">
-        <v>26.525856</v>
+        <v>17.370902</v>
       </c>
       <c r="O12">
-        <v>0.1954913963002474</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P12">
-        <v>0.1538479259457462</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q12">
-        <v>40.677751643592</v>
+        <v>2.659728288828</v>
       </c>
       <c r="R12">
-        <v>162.711006574368</v>
+        <v>15.958369732968</v>
       </c>
       <c r="S12">
-        <v>0.03326929095550082</v>
+        <v>0.002814731132311131</v>
       </c>
       <c r="T12">
-        <v>0.01850457734629826</v>
+        <v>0.002459434994755223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H13">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I13">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J13">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,214 +1243,214 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.11704666666667</v>
+        <v>25.610932</v>
       </c>
       <c r="N13">
-        <v>33.35114</v>
+        <v>76.832796</v>
       </c>
       <c r="O13">
-        <v>0.1638617789074688</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P13">
-        <v>0.1934340485346152</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q13">
-        <v>34.09627672840333</v>
+        <v>7.842784484496001</v>
       </c>
       <c r="R13">
-        <v>204.57766037042</v>
+        <v>70.58506036046401</v>
       </c>
       <c r="S13">
-        <v>0.02788647123163255</v>
+        <v>0.008299843914599644</v>
       </c>
       <c r="T13">
-        <v>0.02326593153929591</v>
+        <v>0.01087826453843843</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8611266666666667</v>
+        <v>0.306228</v>
       </c>
       <c r="H14">
-        <v>2.58338</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I14">
-        <v>0.04778211910048955</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J14">
-        <v>0.05065569673642353</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>17.853143</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N14">
-        <v>35.706286</v>
+        <v>0.092858</v>
       </c>
       <c r="O14">
-        <v>0.2631497248132529</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P14">
-        <v>0.2070937143112604</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q14">
-        <v>15.37381752111333</v>
+        <v>0.009478573208</v>
       </c>
       <c r="R14">
-        <v>92.24290512668</v>
+        <v>0.08530715887200001</v>
       </c>
       <c r="S14">
-        <v>0.0125738514922879</v>
+        <v>1.003096264024927E-05</v>
       </c>
       <c r="T14">
-        <v>0.01049047638817074</v>
+        <v>1.314717075388373E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8611266666666667</v>
+        <v>0.306228</v>
       </c>
       <c r="H15">
-        <v>2.58338</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I15">
-        <v>0.04778211910048955</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J15">
-        <v>0.05065569673642353</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.610932</v>
+        <v>13.1674365</v>
       </c>
       <c r="N15">
-        <v>76.832796</v>
+        <v>26.334873</v>
       </c>
       <c r="O15">
-        <v>0.3774970999790308</v>
+        <v>0.2769334094675747</v>
       </c>
       <c r="P15">
-        <v>0.4456243112083781</v>
+        <v>0.2180237344257262</v>
       </c>
       <c r="Q15">
-        <v>22.05425650338667</v>
+        <v>4.032237744522</v>
       </c>
       <c r="R15">
-        <v>198.48830853048</v>
+        <v>24.193426467132</v>
       </c>
       <c r="S15">
-        <v>0.01803761139128746</v>
+        <v>0.004267227280342715</v>
       </c>
       <c r="T15">
-        <v>0.02257340996694922</v>
+        <v>0.003728586358879606</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8611266666666667</v>
+        <v>0.306228</v>
       </c>
       <c r="H16">
-        <v>2.58338</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I16">
-        <v>0.04778211910048955</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J16">
-        <v>0.05065569673642353</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>13.262928</v>
+        <v>0.05253</v>
       </c>
       <c r="N16">
-        <v>26.525856</v>
+        <v>0.15759</v>
       </c>
       <c r="O16">
-        <v>0.1954913963002474</v>
+        <v>0.001104794543670797</v>
       </c>
       <c r="P16">
-        <v>0.1538479259457462</v>
+        <v>0.001304671577802946</v>
       </c>
       <c r="Q16">
-        <v>11.42106097888</v>
+        <v>0.01608615684</v>
       </c>
       <c r="R16">
-        <v>68.52636587328</v>
+        <v>0.14477541156</v>
       </c>
       <c r="S16">
-        <v>0.009340993181139422</v>
+        <v>1.702362103940299E-05</v>
       </c>
       <c r="T16">
-        <v>0.007793273880235464</v>
+        <v>2.231216092425572E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,217 +1458,217 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H17">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I17">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J17">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.11704666666667</v>
+        <v>8.685451</v>
       </c>
       <c r="N17">
-        <v>33.35114</v>
+        <v>17.370902</v>
       </c>
       <c r="O17">
-        <v>0.1638617789074688</v>
+        <v>0.1826696911121277</v>
       </c>
       <c r="P17">
-        <v>0.1934340485346152</v>
+        <v>0.1438119304537112</v>
       </c>
       <c r="Q17">
-        <v>9.573185339244445</v>
+        <v>39.12918140359101</v>
       </c>
       <c r="R17">
-        <v>86.1586680532</v>
+        <v>156.516725614364</v>
       </c>
       <c r="S17">
-        <v>0.00782966303577476</v>
+        <v>0.04140954004255425</v>
       </c>
       <c r="T17">
-        <v>0.009798536501068099</v>
+        <v>0.02412168151770693</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.505141</v>
+      </c>
+      <c r="H18">
+        <v>9.010282</v>
+      </c>
+      <c r="I18">
+        <v>0.2266908089155082</v>
+      </c>
+      <c r="J18">
+        <v>0.1677307400130547</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H18">
-        <v>1.671026</v>
-      </c>
-      <c r="I18">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J18">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.853143</v>
+        <v>25.610932</v>
       </c>
       <c r="N18">
-        <v>35.706286</v>
+        <v>76.832796</v>
       </c>
       <c r="O18">
-        <v>0.2631497248132529</v>
+        <v>0.5386411180644168</v>
       </c>
       <c r="P18">
-        <v>0.2070937143112604</v>
+        <v>0.6360909016075377</v>
       </c>
       <c r="Q18">
-        <v>9.944355378239331</v>
+        <v>115.380859801412</v>
       </c>
       <c r="R18">
-        <v>59.66613226943599</v>
+        <v>692.285158808472</v>
       </c>
       <c r="S18">
-        <v>0.008133233501750374</v>
+        <v>0.1221049907691764</v>
       </c>
       <c r="T18">
-        <v>0.006785629213286238</v>
+        <v>0.1066919976422035</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5570086666666666</v>
+        <v>4.505141</v>
       </c>
       <c r="H19">
-        <v>1.671026</v>
+        <v>9.010282</v>
       </c>
       <c r="I19">
-        <v>0.03090724684406268</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J19">
-        <v>0.03276598343823939</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>25.610932</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N19">
-        <v>76.832796</v>
+        <v>0.092858</v>
       </c>
       <c r="O19">
-        <v>0.3774970999790308</v>
+        <v>0.0006509868122100569</v>
       </c>
       <c r="P19">
-        <v>0.4456243112083781</v>
+        <v>0.0007687619352219425</v>
       </c>
       <c r="Q19">
-        <v>14.26551108541067</v>
+        <v>0.1394461276593333</v>
       </c>
       <c r="R19">
-        <v>128.389599768696</v>
+        <v>0.8366767659559999</v>
       </c>
       <c r="S19">
-        <v>0.01166739605196971</v>
+        <v>0.0001475727270532258</v>
       </c>
       <c r="T19">
-        <v>0.01460131880073055</v>
+        <v>0.0001289450082886444</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5570086666666666</v>
+        <v>4.505141</v>
       </c>
       <c r="H20">
-        <v>1.671026</v>
+        <v>9.010282</v>
       </c>
       <c r="I20">
-        <v>0.03090724684406268</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J20">
-        <v>0.03276598343823939</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,90 +1677,710 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.262928</v>
+        <v>13.1674365</v>
       </c>
       <c r="N20">
-        <v>26.525856</v>
+        <v>26.334873</v>
       </c>
       <c r="O20">
-        <v>0.1954913963002474</v>
+        <v>0.2769334094675747</v>
       </c>
       <c r="P20">
-        <v>0.1538479259457462</v>
+        <v>0.2180237344257262</v>
       </c>
       <c r="Q20">
-        <v>7.387565841375999</v>
+        <v>59.3211580410465</v>
       </c>
       <c r="R20">
-        <v>44.325395048256</v>
+        <v>237.284632164186</v>
       </c>
       <c r="S20">
-        <v>0.006042100841342228</v>
+        <v>0.06277825860793416</v>
       </c>
       <c r="T20">
-        <v>0.005040978593545799</v>
+        <v>0.03656928231563677</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.505141</v>
+      </c>
+      <c r="H21">
+        <v>9.010282</v>
+      </c>
+      <c r="I21">
+        <v>0.2266908089155082</v>
+      </c>
+      <c r="J21">
+        <v>0.1677307400130547</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05253</v>
+      </c>
+      <c r="N21">
+        <v>0.15759</v>
+      </c>
+      <c r="O21">
+        <v>0.001104794543670797</v>
+      </c>
+      <c r="P21">
+        <v>0.001304671577802946</v>
+      </c>
+      <c r="Q21">
+        <v>0.23665505673</v>
+      </c>
+      <c r="R21">
+        <v>1.41993034038</v>
+      </c>
+      <c r="S21">
+        <v>0.0002504467687901728</v>
+      </c>
+      <c r="T21">
+        <v>0.0002188335292188877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.391799</v>
+      </c>
+      <c r="I22">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J22">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.685451</v>
+      </c>
+      <c r="N22">
+        <v>17.370902</v>
+      </c>
+      <c r="O22">
+        <v>0.1826696911121277</v>
+      </c>
+      <c r="P22">
+        <v>0.1438119304537112</v>
+      </c>
+      <c r="Q22">
+        <v>1.134317005449667</v>
+      </c>
+      <c r="R22">
+        <v>6.805902032698</v>
+      </c>
+      <c r="S22">
+        <v>0.001200422389971273</v>
+      </c>
+      <c r="T22">
+        <v>0.001048896216228977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.391799</v>
+      </c>
+      <c r="I23">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J23">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>25.610932</v>
+      </c>
+      <c r="N23">
+        <v>76.832796</v>
+      </c>
+      <c r="O23">
+        <v>0.5386411180644168</v>
+      </c>
+      <c r="P23">
+        <v>0.6360909016075377</v>
+      </c>
+      <c r="Q23">
+        <v>3.344779182222667</v>
+      </c>
+      <c r="R23">
+        <v>30.103012640004</v>
+      </c>
+      <c r="S23">
+        <v>0.003539705215173254</v>
+      </c>
+      <c r="T23">
+        <v>0.004639346247344719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.391799</v>
+      </c>
+      <c r="I24">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J24">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03095266666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.092858</v>
+      </c>
+      <c r="O24">
+        <v>0.0006509868122100569</v>
+      </c>
+      <c r="P24">
+        <v>0.0007687619352219425</v>
+      </c>
+      <c r="Q24">
+        <v>0.004042407949111111</v>
+      </c>
+      <c r="R24">
+        <v>0.036381671542</v>
+      </c>
+      <c r="S24">
+        <v>4.277990181049223E-06</v>
+      </c>
+      <c r="T24">
+        <v>5.606986030235524E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.391799</v>
+      </c>
+      <c r="I25">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J25">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.1674365</v>
+      </c>
+      <c r="N25">
+        <v>26.334873</v>
+      </c>
+      <c r="O25">
+        <v>0.2769334094675747</v>
+      </c>
+      <c r="P25">
+        <v>0.2180237344257262</v>
+      </c>
+      <c r="Q25">
+        <v>1.7196628177545</v>
+      </c>
+      <c r="R25">
+        <v>10.317976906527</v>
+      </c>
+      <c r="S25">
+        <v>0.001819880809082335</v>
+      </c>
+      <c r="T25">
+        <v>0.001590162021786241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.391799</v>
+      </c>
+      <c r="I26">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J26">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.05253</v>
+      </c>
+      <c r="N26">
+        <v>0.15759</v>
+      </c>
+      <c r="O26">
+        <v>0.001104794543670797</v>
+      </c>
+      <c r="P26">
+        <v>0.001304671577802946</v>
+      </c>
+      <c r="Q26">
+        <v>0.00686040049</v>
+      </c>
+      <c r="R26">
+        <v>0.06174360441000001</v>
+      </c>
+      <c r="S26">
+        <v>7.260208841796583E-06</v>
+      </c>
+      <c r="T26">
+        <v>9.515657547059128E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.115013</v>
+      </c>
+      <c r="H27">
+        <v>0.345039</v>
+      </c>
+      <c r="I27">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J27">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.685451</v>
+      </c>
+      <c r="N27">
+        <v>17.370902</v>
+      </c>
+      <c r="O27">
+        <v>0.1826696911121277</v>
+      </c>
+      <c r="P27">
+        <v>0.1438119304537112</v>
+      </c>
+      <c r="Q27">
+        <v>0.998939775863</v>
+      </c>
+      <c r="R27">
+        <v>5.993638655178</v>
+      </c>
+      <c r="S27">
+        <v>0.001057155687006087</v>
+      </c>
+      <c r="T27">
+        <v>0.0009237136938875035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.115013</v>
+      </c>
+      <c r="H28">
+        <v>0.345039</v>
+      </c>
+      <c r="I28">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J28">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>25.610932</v>
+      </c>
+      <c r="N28">
+        <v>76.832796</v>
+      </c>
+      <c r="O28">
+        <v>0.5386411180644168</v>
+      </c>
+      <c r="P28">
+        <v>0.6360909016075377</v>
+      </c>
+      <c r="Q28">
+        <v>2.945590122116</v>
+      </c>
+      <c r="R28">
+        <v>26.510311099044</v>
+      </c>
+      <c r="S28">
+        <v>0.003117252335350944</v>
+      </c>
+      <c r="T28">
+        <v>0.004085654608198526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.115013</v>
+      </c>
+      <c r="H29">
+        <v>0.345039</v>
+      </c>
+      <c r="I29">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J29">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03095266666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.092858</v>
+      </c>
+      <c r="O29">
+        <v>0.0006509868122100569</v>
+      </c>
+      <c r="P29">
+        <v>0.0007687619352219425</v>
+      </c>
+      <c r="Q29">
+        <v>0.003559959051333333</v>
+      </c>
+      <c r="R29">
+        <v>0.032039631462</v>
+      </c>
+      <c r="S29">
+        <v>3.76742527183337E-06</v>
+      </c>
+      <c r="T29">
+        <v>4.937809572986238E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H21">
-        <v>1.671026</v>
-      </c>
-      <c r="I21">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J21">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.11704666666667</v>
-      </c>
-      <c r="N21">
-        <v>33.35114</v>
-      </c>
-      <c r="O21">
-        <v>0.1638617789074688</v>
-      </c>
-      <c r="P21">
-        <v>0.1934340485346152</v>
-      </c>
-      <c r="Q21">
-        <v>6.192291341071111</v>
-      </c>
-      <c r="R21">
-        <v>55.73062206964</v>
-      </c>
-      <c r="S21">
-        <v>0.005064516449000361</v>
-      </c>
-      <c r="T21">
-        <v>0.006338056830676795</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.115013</v>
+      </c>
+      <c r="H30">
+        <v>0.345039</v>
+      </c>
+      <c r="I30">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J30">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>13.1674365</v>
+      </c>
+      <c r="N30">
+        <v>26.334873</v>
+      </c>
+      <c r="O30">
+        <v>0.2769334094675747</v>
+      </c>
+      <c r="P30">
+        <v>0.2180237344257262</v>
+      </c>
+      <c r="Q30">
+        <v>1.5144263741745</v>
+      </c>
+      <c r="R30">
+        <v>9.086558245047</v>
+      </c>
+      <c r="S30">
+        <v>0.001602683657908672</v>
+      </c>
+      <c r="T30">
+        <v>0.001400381098050538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.115013</v>
+      </c>
+      <c r="H31">
+        <v>0.345039</v>
+      </c>
+      <c r="I31">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J31">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.05253</v>
+      </c>
+      <c r="N31">
+        <v>0.15759</v>
+      </c>
+      <c r="O31">
+        <v>0.001104794543670797</v>
+      </c>
+      <c r="P31">
+        <v>0.001304671577802946</v>
+      </c>
+      <c r="Q31">
+        <v>0.00604163289</v>
+      </c>
+      <c r="R31">
+        <v>0.05437469601</v>
+      </c>
+      <c r="S31">
+        <v>6.393725350408374E-06</v>
+      </c>
+      <c r="T31">
+        <v>8.379993221983043E-06</v>
       </c>
     </row>
   </sheetData>
